--- a/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
+++ b/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>168.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>47.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.15</t>
+          <t>44.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银核心科技混合</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>36.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160143</t>
+          <t>009888</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方创业板2年定期开放混合</t>
+          <t>广发稳健优选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>34.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164905</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银国证新能源指数（LOF）</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>信达澳银核心科技混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>164905</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>交银国证新能源指数（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>6</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>91.61</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>003092</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>华商丰利增强定期开放债券A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>003093</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>华商丰利增强定期开放债券C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>59.05</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>59.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003092</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券A</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003093</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券C</t>
+          <t>诺安中证500指数增强C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1476,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.71</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
+++ b/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1883,4 +1884,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华双债增利债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
+++ b/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2282,4 +2283,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
+++ b/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2529,4 +2530,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
+++ b/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2538,7 +2539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,17 +2550,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2569,14 +2590,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2585,14 +2628,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -2601,14 +2734,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="5">
@@ -2617,13 +2750,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
+++ b/数据整理/stocks/A股/创业板/300618-寒锐钴业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2671,7 +2672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2682,17 +2683,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2702,14 +2723,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.66</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2718,14 +2761,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4">
@@ -2734,14 +2867,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -2750,14 +2883,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="6">
@@ -2766,13 +2899,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.9</v>
       </c>
     </row>
